--- a/STOCK UTN/2023/12 DESEMBER/08 JANUARI - 13 JANUARI 2024.xlsx
+++ b/STOCK UTN/2023/12 DESEMBER/08 JANUARI - 13 JANUARI 2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="8190" tabRatio="803" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="8190" tabRatio="803" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="JK KENKO" sheetId="1" r:id="rId1"/>
@@ -11678,7 +11678,7 @@
   <dimension ref="A1:C135"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
@@ -13426,7 +13426,7 @@
     <cfRule type="duplicateValues" dxfId="2" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A77">
-    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="63"/>
   </conditionalFormatting>
   <pageMargins left="0.98425196850393704" right="0.39370078740157483" top="0.39370078740157483" bottom="1.4960629921259843" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>
@@ -13442,8 +13442,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C2241"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A2237" sqref="A2237"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScale="70" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -13716,7 +13716,7 @@
     <row r="2" spans="1:3">
       <c r="A2" s="35" t="str">
         <f ca="1">"TANGGAL : "&amp;SUBSTITUTE(MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1),".xlsx","")</f>
-        <v>TANGGAL : 08 JANUARI - 13 JANUARI 2024</v>
+        <v>TANGGAL : LOG_JANUARI.XLSX</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -38359,7 +38359,7 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A2">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.98425196850393704" right="0.19685039370078741" top="0.39370078740157483" bottom="1.4173228346456694" header="0.39370078740157483" footer="0.19685039370078741"/>
   <pageSetup paperSize="5" fitToHeight="60" orientation="portrait" r:id="rId1"/>
@@ -38374,8 +38374,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F984"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B968" sqref="B968"/>
+    <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/STOCK UTN/2023/12 DESEMBER/08 JANUARI - 13 JANUARI 2024.xlsx
+++ b/STOCK UTN/2023/12 DESEMBER/08 JANUARI - 13 JANUARI 2024.xlsx
@@ -13443,7 +13443,7 @@
   <dimension ref="A1:C2241"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScale="70" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -13716,7 +13716,7 @@
     <row r="2" spans="1:3">
       <c r="A2" s="35" t="str">
         <f ca="1">"TANGGAL : "&amp;SUBSTITUTE(MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1),".xlsx","")</f>
-        <v>TANGGAL : LOG_JANUARI.XLSX</v>
+        <v>TANGGAL : 15 JANUARI - 20 JANUARI 2024</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
